--- a/hamster-sprite-dao/src/test/resources/sql/test-data.xlsx
+++ b/hamster-sprite-dao/src/test/resources/sql/test-data.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
-  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="100" windowWidth="14800" windowHeight="8020" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8025" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
-    <sheet name="user" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="hms_user" sheetId="2" r:id="rId2"/>
+    <sheet name="hms_password_application" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211" concurrentCalc="0"/>
   <extLst>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -75,6 +75,30 @@
   </si>
   <si>
     <t>ACTIVE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_order</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sina Weibo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://weibo.com/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -82,7 +106,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,6 +143,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -137,20 +168,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="22" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+  <cellStyles count="4">
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -453,7 +487,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -469,25 +503,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.83203125" style="1"/>
-    <col min="3" max="3" width="46.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.875" style="1"/>
+    <col min="3" max="3" width="46.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.83203125" style="1"/>
+    <col min="10" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -516,7 +550,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -559,18 +593,89 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="2">
+        <v>42559.625</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="2">
+        <v>42559.625</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
--- a/hamster-sprite-dao/src/test/resources/sql/test-data.xlsx
+++ b/hamster-sprite-dao/src/test/resources/sql/test-data.xlsx
@@ -4,12 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8025" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8025" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
     <sheet name="hms_user" sheetId="2" r:id="rId2"/>
     <sheet name="hms_password_application" sheetId="4" r:id="rId3"/>
+    <sheet name="hms_password_account" sheetId="5" r:id="rId4"/>
+    <sheet name="hms_password_password" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="122211" concurrentCalc="0"/>
   <extLst>
@@ -21,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="31">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -99,6 +101,50 @@
   </si>
   <si>
     <t>http://weibo.com/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>account_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>application_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>active_password_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dummy_sina@hotmail.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dummy_sina2@hotmail.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>account_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hotmail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mail.live.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dummy_email@hotmail.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -174,11 +220,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="22" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
@@ -501,10 +548,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:I2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -514,9 +561,9 @@
     <col min="3" max="3" width="46.125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="8.875" style="1"/>
   </cols>
@@ -577,6 +624,11 @@
       </c>
       <c r="I2" s="1" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C27" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -593,17 +645,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="1"/>
     <col min="5" max="5" width="12.75" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.125" style="1" bestFit="1" customWidth="1"/>
@@ -670,12 +722,417 @@
         <v>13</v>
       </c>
     </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="2">
+        <v>42621.625</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="2">
+        <v>42621.625</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="26.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="1"/>
+    <col min="6" max="6" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="2">
+        <v>42559.625</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="2">
+        <v>42559.625</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="2">
+        <v>42559.625</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="2">
+        <v>42559.625</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>4</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="2">
+        <v>42559.625</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="2">
+        <v>42559.625</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>5</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="2">
+        <v>42559.625</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="2">
+        <v>42559.625</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId4"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="49.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="2">
+        <v>42559.625</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="2">
+        <v>42559.625</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="2">
+        <v>42559.625</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="2">
+        <v>42559.625</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="2">
+        <v>42559.625</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="2">
+        <v>42559.625</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="2">
+        <v>42559.625</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="2">
+        <v>42559.625</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="2">
+        <v>42559.625</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="2">
+        <v>42559.625</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/hamster-sprite-dao/src/test/resources/sql/test-data.xlsx
+++ b/hamster-sprite-dao/src/test/resources/sql/test-data.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8025" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8025" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
     <sheet name="hms_user" sheetId="2" r:id="rId2"/>
     <sheet name="hms_password_application" sheetId="4" r:id="rId3"/>
     <sheet name="hms_password_account" sheetId="5" r:id="rId4"/>
-    <sheet name="hms_password_password" sheetId="6" r:id="rId5"/>
+    <sheet name="hms_password" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="122211" concurrentCalc="0"/>
   <extLst>
@@ -112,10 +112,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>active_password_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>dummy_sina@hotmail.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -145,6 +141,10 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>current</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -550,7 +550,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
@@ -628,7 +628,7 @@
     </row>
     <row r="27" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C27" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -727,10 +727,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>
@@ -764,10 +764,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -775,15 +775,14 @@
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="26.125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="16.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="4" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -794,137 +793,122 @@
         <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="C2" s="1">
         <v>1</v>
       </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="2">
-        <v>42559.625</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="2">
-        <v>42559.625</v>
-      </c>
-      <c r="I2" s="1" t="s">
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="2">
+        <v>42559.625</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="2">
+        <v>42559.625</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
       </c>
-      <c r="D3" s="1">
-        <v>3</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="2">
-        <v>42559.625</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="2">
-        <v>42559.625</v>
-      </c>
-      <c r="I3" s="1" t="s">
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="2">
+        <v>42559.625</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="2">
+        <v>42559.625</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
       </c>
-      <c r="D4" s="1">
-        <v>4</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="2">
-        <v>42559.625</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="2">
-        <v>42559.625</v>
-      </c>
-      <c r="I4" s="1" t="s">
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="2">
+        <v>42559.625</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="2">
+        <v>42559.625</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" s="1">
         <v>2</v>
       </c>
-      <c r="D5" s="1">
-        <v>5</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="2">
-        <v>42559.625</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="2">
-        <v>42559.625</v>
-      </c>
-      <c r="I5" s="1" t="s">
+      <c r="D5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="2">
+        <v>42559.625</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="2">
+        <v>42559.625</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -943,196 +927,217 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="49.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B1" t="s">
-        <v>26</v>
-      </c>
       <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
+    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="2">
-        <v>42559.625</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="2">
-        <v>42559.625</v>
-      </c>
-      <c r="I2" s="1" t="s">
+      <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="2">
+        <v>42559.625</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="2">
+        <v>42559.625</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="2">
-        <v>42559.625</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="2">
-        <v>42559.625</v>
-      </c>
-      <c r="I3" s="1" t="s">
+      <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="2">
+        <v>42559.625</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="2">
+        <v>42559.625</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>2</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="2">
-        <v>42559.625</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="2">
-        <v>42559.625</v>
-      </c>
-      <c r="I4" s="1" t="s">
+      <c r="F4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="2">
+        <v>42559.625</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="2">
+        <v>42559.625</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>3</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="2">
-        <v>42559.625</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="2">
-        <v>42559.625</v>
-      </c>
-      <c r="I5" s="1" t="s">
+      <c r="F5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="2">
+        <v>42559.625</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="2">
+        <v>42559.625</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>4</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="2">
-        <v>42559.625</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="2">
-        <v>42559.625</v>
-      </c>
-      <c r="I6" s="1" t="s">
+      <c r="F6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="2">
+        <v>42559.625</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="2">
+        <v>42559.625</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/hamster-sprite-dao/src/test/resources/sql/test-data.xlsx
+++ b/hamster-sprite-dao/src/test/resources/sql/test-data.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8025" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="100" windowWidth="14800" windowHeight="8020" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
@@ -23,16 +23,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="31">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>user_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>password</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -145,6 +141,10 @@
   </si>
   <si>
     <t>current</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>username</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -228,8 +228,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8"/>
   </cellStyles>
@@ -534,7 +534,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -548,87 +548,80 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="14.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.875" style="1"/>
-    <col min="3" max="3" width="46.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.875" style="1"/>
+    <col min="1" max="1" width="14.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2">
+        <v>42559.625</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="2">
+        <v>42559.625</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="2">
-        <v>42559.625</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="2">
-        <v>42559.625</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="3:3">
       <c r="C27" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -651,104 +644,104 @@
       <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="12.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="8.83203125" style="1"/>
+    <col min="2" max="2" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" style="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="D2" s="1">
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="2">
+        <v>42559.625</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="2">
+        <v>42559.625</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="2">
-        <v>42559.625</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="2">
-        <v>42559.625</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F3" s="2">
         <v>42621.625</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H3" s="2">
         <v>42621.625</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -758,7 +751,12 @@
     <hyperlink ref="C3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -770,146 +768,146 @@
       <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="26.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="16.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="8.83203125" style="1"/>
+    <col min="2" max="2" width="26.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" style="1"/>
+    <col min="5" max="5" width="16.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>22</v>
-      </c>
       <c r="C2" s="1">
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2">
+        <v>42559.625</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="2">
+        <v>42559.625</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="2">
-        <v>42559.625</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="2">
-        <v>42559.625</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="2">
+        <v>42559.625</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="2">
+        <v>42559.625</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="2">
-        <v>42559.625</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="2">
-        <v>42559.625</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:8" ht="15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="2">
+        <v>42559.625</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="2">
+        <v>42559.625</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="2">
-        <v>42559.625</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="2">
-        <v>42559.625</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:8" ht="15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5" s="1">
         <v>2</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="2">
+        <v>42559.625</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="2">
+        <v>42559.625</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="E5" s="2">
-        <v>42559.625</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="2">
-        <v>42559.625</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -921,7 +919,12 @@
     <hyperlink ref="B5" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -929,53 +932,53 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="49.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15">
       <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:10" ht="15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -986,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="F2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="2">
+        <v>42559.625</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="2">
+        <v>42559.625</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="2">
-        <v>42559.625</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="2">
-        <v>42559.625</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:10" ht="15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1018,28 +1021,28 @@
         <v>0</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="F3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="2">
+        <v>42559.625</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="2">
+        <v>42559.625</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="2">
-        <v>42559.625</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="2">
-        <v>42559.625</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:10" ht="15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1050,28 +1053,28 @@
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="F4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="2">
+        <v>42559.625</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="2">
+        <v>42559.625</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="2">
-        <v>42559.625</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="2">
-        <v>42559.625</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:10" ht="15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1082,28 +1085,28 @@
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="F5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="2">
+        <v>42559.625</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="2">
+        <v>42559.625</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="2">
-        <v>42559.625</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="2">
-        <v>42559.625</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:10" ht="15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1114,30 +1117,35 @@
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="F6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="2">
+        <v>42559.625</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="2">
+        <v>42559.625</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="G6" s="2">
-        <v>42559.625</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="2">
-        <v>42559.625</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/hamster-sprite-dao/src/test/resources/sql/test-data.xlsx
+++ b/hamster-sprite-dao/src/test/resources/sql/test-data.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="32">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -145,6 +145,10 @@
   </si>
   <si>
     <t>username</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$2a$10$PX.WvBHYExVN/V9XH48.ruaBcl67zEIEV.F/AIGviee5JyG9khymO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -551,14 +555,14 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="14.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="62.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
@@ -601,7 +605,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>

--- a/hamster-sprite-dao/src/test/resources/sql/test-data.xlsx
+++ b/hamster-sprite-dao/src/test/resources/sql/test-data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="100" windowWidth="14800" windowHeight="8020" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28040" windowHeight="17540" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="35">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -149,6 +149,18 @@
   </si>
   <si>
     <t>$2a$10$PX.WvBHYExVN/V9XH48.ruaBcl67zEIEV.F/AIGviee5JyG9khymO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dummySimpleAccount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYSTEM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -218,11 +230,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -231,9 +248,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="9">
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8"/>
   </cellStyles>
@@ -554,7 +576,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -766,10 +788,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -784,7 +806,7 @@
     <col min="8" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -809,8 +831,11 @@
       <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -835,8 +860,11 @@
       <c r="H2" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -861,8 +889,11 @@
       <c r="H3" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="15">
+      <c r="I3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -887,8 +918,11 @@
       <c r="H4" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="15">
+      <c r="I4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -912,6 +946,38 @@
       </c>
       <c r="H5" s="1" t="s">
         <v>12</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="2">
+        <v>42559.625</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="2">
+        <v>42559.625</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -923,7 +989,7 @@
     <hyperlink ref="B5" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -934,10 +1000,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1051,10 +1117,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>9</v>
@@ -1083,10 +1149,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>9</v>
@@ -1115,7 +1181,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C6" s="1" t="b">
         <v>1</v>
@@ -1139,13 +1205,109 @@
         <v>42559.625</v>
       </c>
       <c r="J6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="2">
+        <v>42559.625</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="2">
+        <v>42559.625</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="2">
+        <v>42559.625</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="2">
+        <v>42559.625</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="2">
+        <v>42559.625</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="2">
+        <v>42559.625</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
